--- a/backstage_admin/app/upload/example.xlsx
+++ b/backstage_admin/app/upload/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E267657-4A4F-4C84-8EFE-D4FEC03159C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D2581-2784-4012-B61B-8B820C7A7508}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>身份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,30 +59,6 @@
   </si>
   <si>
     <t>照片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏银利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计科1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息科学与技术学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/123123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,35 +433,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>2016014375</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backstage_admin/app/upload/example.xlsx
+++ b/backstage_admin/app/upload/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D2581-2784-4012-B61B-8B820C7A7508}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F6F2D-B886-4B95-8749-8D21F8F2462F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
